--- a/data/pca/factorExposure/factorExposure_2011-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.009176898275457155</v>
+        <v>0.01669129914287858</v>
       </c>
       <c r="C2">
-        <v>-0.0007632972907719456</v>
+        <v>-0.006863746312638923</v>
       </c>
       <c r="D2">
-        <v>0.02666322050213615</v>
+        <v>-0.005911094447979391</v>
       </c>
       <c r="E2">
-        <v>-0.01789404319144726</v>
+        <v>-0.01604471451552253</v>
       </c>
       <c r="F2">
-        <v>-0.01430286165848627</v>
+        <v>-0.001037885832205962</v>
       </c>
       <c r="G2">
-        <v>-0.01709561585984445</v>
+        <v>-0.01808676986259803</v>
       </c>
       <c r="H2">
-        <v>-0.04646023773338547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.01557378727902821</v>
+      </c>
+      <c r="I2">
+        <v>0.009301415867552553</v>
+      </c>
+      <c r="J2">
+        <v>-0.02234664094738666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1089941711509563</v>
+        <v>0.1244242675093844</v>
       </c>
       <c r="C4">
-        <v>-0.01924945946427598</v>
+        <v>-0.05465712284475464</v>
       </c>
       <c r="D4">
-        <v>0.06897163240646688</v>
+        <v>-0.007351613712943441</v>
       </c>
       <c r="E4">
-        <v>-0.04724060481728684</v>
+        <v>-0.004401754079364336</v>
       </c>
       <c r="F4">
-        <v>-0.01974557047939031</v>
+        <v>-0.003183649419356312</v>
       </c>
       <c r="G4">
-        <v>-0.03421458930966909</v>
+        <v>-0.00135446541070565</v>
       </c>
       <c r="H4">
-        <v>0.04116029248517084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.05194519480096251</v>
+      </c>
+      <c r="I4">
+        <v>0.1292106633497146</v>
+      </c>
+      <c r="J4">
+        <v>0.04691857996729017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1284221000686075</v>
+        <v>0.1199188934585496</v>
       </c>
       <c r="C6">
-        <v>-0.02900514616514435</v>
+        <v>0.003581257631214617</v>
       </c>
       <c r="D6">
-        <v>-0.04421144103827429</v>
+        <v>-0.01020230301667999</v>
       </c>
       <c r="E6">
-        <v>-0.02432728682163148</v>
+        <v>-0.01936506661276453</v>
       </c>
       <c r="F6">
-        <v>0.2450019304599682</v>
+        <v>-0.02897124483672518</v>
       </c>
       <c r="G6">
-        <v>0.1668439423219025</v>
+        <v>0.04580038066224358</v>
       </c>
       <c r="H6">
-        <v>0.2412621960011274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.05428930619253468</v>
+      </c>
+      <c r="I6">
+        <v>0.04140586735194301</v>
+      </c>
+      <c r="J6">
+        <v>-0.1549529090912038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.09015032958437537</v>
+        <v>0.08191136015623887</v>
       </c>
       <c r="C7">
-        <v>-0.03737397378977854</v>
+        <v>-0.04946651101242496</v>
       </c>
       <c r="D7">
-        <v>0.02962068466542159</v>
+        <v>-0.03688234733366749</v>
       </c>
       <c r="E7">
-        <v>-0.05145322214887276</v>
+        <v>-0.04195598565476338</v>
       </c>
       <c r="F7">
-        <v>0.007041390035623821</v>
+        <v>-0.01301525358839478</v>
       </c>
       <c r="G7">
-        <v>-0.003123330197099893</v>
+        <v>-0.04281236373576718</v>
       </c>
       <c r="H7">
-        <v>0.01423917966202982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.02554801746569765</v>
+      </c>
+      <c r="I7">
+        <v>0.03040346548535598</v>
+      </c>
+      <c r="J7">
+        <v>0.06691294783150639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04128482105370101</v>
+        <v>0.052377168319192</v>
       </c>
       <c r="C8">
-        <v>0.03892553897016272</v>
+        <v>-0.008874789833930944</v>
       </c>
       <c r="D8">
-        <v>0.07667550265904416</v>
+        <v>-0.007557105072772884</v>
       </c>
       <c r="E8">
-        <v>-0.09958864184665973</v>
+        <v>-0.0250220478232667</v>
       </c>
       <c r="F8">
-        <v>0.007849043086963103</v>
+        <v>0.01440500283917036</v>
       </c>
       <c r="G8">
-        <v>-0.1616354500246326</v>
+        <v>0.00452337519377181</v>
       </c>
       <c r="H8">
-        <v>0.1201548184763786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.06419627616535771</v>
+      </c>
+      <c r="I8">
+        <v>0.1056218700381453</v>
+      </c>
+      <c r="J8">
+        <v>-0.01843087411120361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.09560345059626649</v>
+        <v>0.09715987565864202</v>
       </c>
       <c r="C9">
-        <v>-0.03419496062359861</v>
+        <v>-0.05187323038690409</v>
       </c>
       <c r="D9">
-        <v>0.04289621096281138</v>
+        <v>0.00780323772503789</v>
       </c>
       <c r="E9">
-        <v>-0.0479786065993789</v>
+        <v>-0.01571669049737732</v>
       </c>
       <c r="F9">
-        <v>-0.00602954939553313</v>
+        <v>0.00753370466055126</v>
       </c>
       <c r="G9">
-        <v>-0.07075598972438699</v>
+        <v>-0.01523406562853528</v>
       </c>
       <c r="H9">
-        <v>0.06363121545066125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.06375323476233201</v>
+      </c>
+      <c r="I9">
+        <v>0.107011681574758</v>
+      </c>
+      <c r="J9">
+        <v>0.01902616544982476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.03923859824306861</v>
+        <v>0.06746219271798695</v>
       </c>
       <c r="C10">
-        <v>0.1815604933247634</v>
+        <v>0.1895116881896176</v>
       </c>
       <c r="D10">
-        <v>0.01668425884396451</v>
+        <v>0.0057888063353851</v>
       </c>
       <c r="E10">
-        <v>-0.1000939199037766</v>
+        <v>0.001112097269448136</v>
       </c>
       <c r="F10">
-        <v>0.02055059490374059</v>
+        <v>-0.008293869111089</v>
       </c>
       <c r="G10">
-        <v>0.02289079328293729</v>
+        <v>-0.06556763670486324</v>
       </c>
       <c r="H10">
-        <v>0.03575217949194339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.01061587449652259</v>
+      </c>
+      <c r="I10">
+        <v>0.01248607739052543</v>
+      </c>
+      <c r="J10">
+        <v>0.02360109214641732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.0767261318924342</v>
+        <v>0.09283992664228773</v>
       </c>
       <c r="C11">
-        <v>-0.05549546524746388</v>
+        <v>-0.06977067969206711</v>
       </c>
       <c r="D11">
-        <v>-0.02219009897787094</v>
+        <v>-0.02938464274574071</v>
       </c>
       <c r="E11">
-        <v>-0.02346345292360109</v>
+        <v>-0.0455372331400266</v>
       </c>
       <c r="F11">
-        <v>-0.03057080152294561</v>
+        <v>0.05729944071464547</v>
       </c>
       <c r="G11">
-        <v>-0.1433183393278147</v>
+        <v>0.007438662615594328</v>
       </c>
       <c r="H11">
-        <v>-0.0340222660578569</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.08422694878087118</v>
+      </c>
+      <c r="I11">
+        <v>0.1139822412936588</v>
+      </c>
+      <c r="J11">
+        <v>-0.008990848370143495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.07602456064406514</v>
+        <v>0.09532339685222313</v>
       </c>
       <c r="C12">
-        <v>-0.03514471261049253</v>
+        <v>-0.07066212062892277</v>
       </c>
       <c r="D12">
-        <v>0.0163994799603956</v>
+        <v>-0.02940366577585608</v>
       </c>
       <c r="E12">
-        <v>-0.01186493883092547</v>
+        <v>-0.04362568154859287</v>
       </c>
       <c r="F12">
-        <v>0.01376216244343651</v>
+        <v>0.07272807552057803</v>
       </c>
       <c r="G12">
-        <v>-0.1454453996975381</v>
+        <v>-0.01127067234568624</v>
       </c>
       <c r="H12">
-        <v>-0.02359700841807264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.08599059182744873</v>
+      </c>
+      <c r="I12">
+        <v>0.08212722289457734</v>
+      </c>
+      <c r="J12">
+        <v>-0.03360541388358892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06092581844698159</v>
+        <v>0.04850652544577978</v>
       </c>
       <c r="C13">
-        <v>-0.006768185689200961</v>
+        <v>-0.02005243617493557</v>
       </c>
       <c r="D13">
-        <v>0.02032996255534623</v>
+        <v>0.029577014329143</v>
       </c>
       <c r="E13">
-        <v>-0.01114301661955206</v>
+        <v>-0.01367360108936018</v>
       </c>
       <c r="F13">
-        <v>-0.0462686571278205</v>
+        <v>-0.01463823694318526</v>
       </c>
       <c r="G13">
-        <v>-0.07808109607539909</v>
+        <v>-0.003641308485122508</v>
       </c>
       <c r="H13">
-        <v>0.03122340856310895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.0608631471392424</v>
+      </c>
+      <c r="I13">
+        <v>0.05328184957138088</v>
+      </c>
+      <c r="J13">
+        <v>-0.01768434052103293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.05364328466100739</v>
+        <v>0.03338007803538443</v>
       </c>
       <c r="C14">
-        <v>-0.00634899316045168</v>
+        <v>-0.006561044429271104</v>
       </c>
       <c r="D14">
-        <v>0.02285984641939961</v>
+        <v>-0.006418644063613019</v>
       </c>
       <c r="E14">
-        <v>-0.05058905386750173</v>
+        <v>-0.002262721980862838</v>
       </c>
       <c r="F14">
-        <v>-0.00834439225324122</v>
+        <v>0.01374203411449131</v>
       </c>
       <c r="G14">
-        <v>-0.01760749184146004</v>
+        <v>-0.01014260036940602</v>
       </c>
       <c r="H14">
-        <v>0.1534340574638645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03173849938926065</v>
+      </c>
+      <c r="I14">
+        <v>0.06101581757483851</v>
+      </c>
+      <c r="J14">
+        <v>0.09426689671104553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.03812874393397258</v>
+        <v>0.03169575105064168</v>
       </c>
       <c r="C15">
-        <v>0.01253531256837816</v>
+        <v>-0.01573143362976271</v>
       </c>
       <c r="D15">
-        <v>0.002689425978283018</v>
+        <v>0.00960800462899832</v>
       </c>
       <c r="E15">
-        <v>-0.02178663315892386</v>
+        <v>-0.01718837265389004</v>
       </c>
       <c r="F15">
-        <v>-2.014098701700584e-05</v>
+        <v>-0.02746226371081168</v>
       </c>
       <c r="G15">
-        <v>0.004003527228481296</v>
+        <v>-0.003946447193797744</v>
       </c>
       <c r="H15">
-        <v>0.07268160438501634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.044834558918212</v>
+      </c>
+      <c r="I15">
+        <v>0.02823662740512697</v>
+      </c>
+      <c r="J15">
+        <v>0.03504551865097961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.08343263476044838</v>
+        <v>0.09772241803527028</v>
       </c>
       <c r="C16">
-        <v>-0.06456836093634755</v>
+        <v>-0.06792607992789901</v>
       </c>
       <c r="D16">
-        <v>0.02214298125814805</v>
+        <v>-0.04043523593637773</v>
       </c>
       <c r="E16">
-        <v>-0.01591584393385317</v>
+        <v>-0.05204753869885849</v>
       </c>
       <c r="F16">
-        <v>-0.04009616539936273</v>
+        <v>0.05536852010751461</v>
       </c>
       <c r="G16">
-        <v>-0.1264102280709065</v>
+        <v>0.001013238018406895</v>
       </c>
       <c r="H16">
-        <v>-0.02196155441219954</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.09876015097658035</v>
+      </c>
+      <c r="I16">
+        <v>0.09210711541661958</v>
+      </c>
+      <c r="J16">
+        <v>0.006032821936715364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.05717798738322243</v>
+        <v>0.05574894410265672</v>
       </c>
       <c r="C20">
-        <v>-0.01584090542843985</v>
+        <v>-0.03195065904387517</v>
       </c>
       <c r="D20">
-        <v>-0.007475106385634613</v>
+        <v>-0.03179833359202062</v>
       </c>
       <c r="E20">
-        <v>-0.02177245931573283</v>
+        <v>-0.005918351723193315</v>
       </c>
       <c r="F20">
-        <v>0.006954878074724945</v>
+        <v>-0.009058896453229246</v>
       </c>
       <c r="G20">
-        <v>-0.1065629215747381</v>
+        <v>-0.002394750091510422</v>
       </c>
       <c r="H20">
-        <v>0.0169030726011076</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.03937920455682753</v>
+      </c>
+      <c r="I20">
+        <v>0.04975472061631891</v>
+      </c>
+      <c r="J20">
+        <v>0.0582029229243442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.02869267632069524</v>
+        <v>0.02202487377082185</v>
       </c>
       <c r="C21">
-        <v>-0.03274074462701954</v>
+        <v>-0.001222994459176808</v>
       </c>
       <c r="D21">
-        <v>0.009114791872843269</v>
+        <v>-0.008038257803787171</v>
       </c>
       <c r="E21">
-        <v>-0.003897254531218764</v>
+        <v>0.03339793226079416</v>
       </c>
       <c r="F21">
-        <v>0.0693632088405214</v>
+        <v>-0.003419221904547366</v>
       </c>
       <c r="G21">
-        <v>0.1281275154365166</v>
+        <v>0.02882368685377894</v>
       </c>
       <c r="H21">
-        <v>0.06921504303542063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.02400544588781797</v>
+      </c>
+      <c r="I21">
+        <v>0.07216305311410239</v>
+      </c>
+      <c r="J21">
+        <v>0.02639333629833287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.04469708524705279</v>
+        <v>0.03401302064095544</v>
       </c>
       <c r="C22">
-        <v>-0.02198769198428285</v>
+        <v>0.01561388140739111</v>
       </c>
       <c r="D22">
-        <v>0.6172330545808374</v>
+        <v>-0.003900438461051771</v>
       </c>
       <c r="E22">
-        <v>0.1526941389124927</v>
+        <v>-0.1129796750476771</v>
       </c>
       <c r="F22">
-        <v>-0.03792050362059517</v>
+        <v>-0.6058021869841101</v>
       </c>
       <c r="G22">
-        <v>0.2128010888805534</v>
+        <v>-0.05003982213371805</v>
       </c>
       <c r="H22">
-        <v>-0.07174491078485772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.2469365778256973</v>
+      </c>
+      <c r="I22">
+        <v>-0.1003581555486186</v>
+      </c>
+      <c r="J22">
+        <v>-0.04731696326751994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04511892058587131</v>
+        <v>0.03419433003472263</v>
       </c>
       <c r="C23">
-        <v>-0.02278908967020404</v>
+        <v>0.01531164698099913</v>
       </c>
       <c r="D23">
-        <v>0.6168371402426842</v>
+        <v>-0.004333546023448262</v>
       </c>
       <c r="E23">
-        <v>0.1511306280163323</v>
+        <v>-0.1146715713354385</v>
       </c>
       <c r="F23">
-        <v>-0.03825849095298191</v>
+        <v>-0.6075865409465281</v>
       </c>
       <c r="G23">
-        <v>0.2148805079073895</v>
+        <v>-0.04970101760692927</v>
       </c>
       <c r="H23">
-        <v>-0.07152969662516701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.2482488828875031</v>
+      </c>
+      <c r="I23">
+        <v>-0.09757315475837891</v>
+      </c>
+      <c r="J23">
+        <v>-0.04628661754567658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08522687625852074</v>
+        <v>0.1008374398868576</v>
       </c>
       <c r="C24">
-        <v>-0.04561814037401108</v>
+        <v>-0.06634942959458927</v>
       </c>
       <c r="D24">
-        <v>0.03067984065397961</v>
+        <v>-0.03581038167520112</v>
       </c>
       <c r="E24">
-        <v>-0.03338164937555597</v>
+        <v>-0.0405180145743185</v>
       </c>
       <c r="F24">
-        <v>-0.00865349682426879</v>
+        <v>0.05305708864654977</v>
       </c>
       <c r="G24">
-        <v>-0.1146140399887488</v>
+        <v>-0.01331715752668538</v>
       </c>
       <c r="H24">
-        <v>-0.01203477667247808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.09693955534873658</v>
+      </c>
+      <c r="I24">
+        <v>0.09121764231243128</v>
+      </c>
+      <c r="J24">
+        <v>-0.01638677981532965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07845454220004447</v>
+        <v>0.1002051796191392</v>
       </c>
       <c r="C25">
-        <v>-0.01952277670824522</v>
+        <v>-0.05112226486694148</v>
       </c>
       <c r="D25">
-        <v>0.02010107444087509</v>
+        <v>-0.02866337561312064</v>
       </c>
       <c r="E25">
-        <v>-0.02374117126223537</v>
+        <v>-0.04503551808293561</v>
       </c>
       <c r="F25">
-        <v>0.01709857776928463</v>
+        <v>0.08021318863686033</v>
       </c>
       <c r="G25">
-        <v>-0.1164376665976975</v>
+        <v>-0.01290407506536161</v>
       </c>
       <c r="H25">
-        <v>-0.01738047233943482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09278366723566861</v>
+      </c>
+      <c r="I25">
+        <v>0.0892962219510362</v>
+      </c>
+      <c r="J25">
+        <v>0.00504567349356949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.0529726222583108</v>
+        <v>0.04511098429171158</v>
       </c>
       <c r="C26">
-        <v>-0.02066823286765677</v>
+        <v>0.0003514071773436345</v>
       </c>
       <c r="D26">
-        <v>0.005570351934533403</v>
+        <v>-0.0255182355745705</v>
       </c>
       <c r="E26">
-        <v>-0.05284678248391537</v>
+        <v>-0.006094188769455158</v>
       </c>
       <c r="F26">
-        <v>-0.03769642965296507</v>
+        <v>0.004372139171331097</v>
       </c>
       <c r="G26">
-        <v>-0.05876414120351434</v>
+        <v>0.01822732256819044</v>
       </c>
       <c r="H26">
-        <v>0.09391026684321263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.06438520074211218</v>
+      </c>
+      <c r="I26">
+        <v>0.03365235747801634</v>
+      </c>
+      <c r="J26">
+        <v>0.07083804269559701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06150852879938904</v>
+        <v>0.07141437976098895</v>
       </c>
       <c r="C28">
-        <v>0.3077693007525655</v>
+        <v>0.3033833058651238</v>
       </c>
       <c r="D28">
-        <v>-0.0008100532336642759</v>
+        <v>0.07871338192775887</v>
       </c>
       <c r="E28">
-        <v>-0.01919636202708134</v>
+        <v>-0.03548405902429517</v>
       </c>
       <c r="F28">
-        <v>0.0250083652421349</v>
+        <v>0.04307110818983708</v>
       </c>
       <c r="G28">
-        <v>0.02021582226483042</v>
+        <v>0.004187144763048208</v>
       </c>
       <c r="H28">
-        <v>-0.07945717505236721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.04235115655988784</v>
+      </c>
+      <c r="I28">
+        <v>0.0602326787883912</v>
+      </c>
+      <c r="J28">
+        <v>-0.01953866576648804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05878694849840098</v>
+        <v>0.03620730119454502</v>
       </c>
       <c r="C29">
-        <v>0.001895819592981172</v>
+        <v>-0.005549616783279677</v>
       </c>
       <c r="D29">
-        <v>0.04203826560716898</v>
+        <v>0.005661377235878159</v>
       </c>
       <c r="E29">
-        <v>-0.02915370894375668</v>
+        <v>-0.008644527912357394</v>
       </c>
       <c r="F29">
-        <v>-0.01812431061946845</v>
+        <v>0.02200912015419333</v>
       </c>
       <c r="G29">
-        <v>-0.03953101058291811</v>
+        <v>-0.02730414708740061</v>
       </c>
       <c r="H29">
-        <v>0.1047797598628353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.0745197708882723</v>
+      </c>
+      <c r="I29">
+        <v>0.05470302650467934</v>
+      </c>
+      <c r="J29">
+        <v>0.08573284864561123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1146276850894027</v>
+        <v>0.1169567584641012</v>
       </c>
       <c r="C30">
-        <v>0.008277585149796369</v>
+        <v>-0.0500647456322413</v>
       </c>
       <c r="D30">
-        <v>0.1699446408679246</v>
+        <v>0.01710297133579754</v>
       </c>
       <c r="E30">
-        <v>-0.03702774218333128</v>
+        <v>-0.04040449639201623</v>
       </c>
       <c r="F30">
-        <v>0.1484458980524832</v>
+        <v>0.02029496305391822</v>
       </c>
       <c r="G30">
-        <v>-0.2097814944574846</v>
+        <v>0.03071185506076377</v>
       </c>
       <c r="H30">
-        <v>0.01252477084345167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1347710954361556</v>
+      </c>
+      <c r="I30">
+        <v>0.04668554798342026</v>
+      </c>
+      <c r="J30">
+        <v>-0.2221839496548254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05370353586800746</v>
+        <v>0.03639528508167764</v>
       </c>
       <c r="C31">
-        <v>-0.02737888849347034</v>
+        <v>-0.021261199853053</v>
       </c>
       <c r="D31">
-        <v>0.01600941635416141</v>
+        <v>-0.02078169817276432</v>
       </c>
       <c r="E31">
-        <v>0.01451324565640712</v>
+        <v>-0.0202769681236643</v>
       </c>
       <c r="F31">
-        <v>-0.02555995607250118</v>
+        <v>-0.00466040185215121</v>
       </c>
       <c r="G31">
-        <v>-0.02211620981115251</v>
+        <v>-0.004444744131031912</v>
       </c>
       <c r="H31">
-        <v>0.04146454825134879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.008227705267848837</v>
+      </c>
+      <c r="I31">
+        <v>0.03060510956373479</v>
+      </c>
+      <c r="J31">
+        <v>0.06799087764983612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03367273837874192</v>
+        <v>0.05625949053176826</v>
       </c>
       <c r="C32">
-        <v>0.01018614543443042</v>
+        <v>-0.007174204488229692</v>
       </c>
       <c r="D32">
-        <v>0.0647955188666493</v>
+        <v>-0.02086904490170395</v>
       </c>
       <c r="E32">
-        <v>0.01517915563123573</v>
+        <v>-0.006927081104716836</v>
       </c>
       <c r="F32">
-        <v>-0.09106368813317105</v>
+        <v>0.05786061092365022</v>
       </c>
       <c r="G32">
-        <v>-0.06040920455346788</v>
+        <v>0.03983703718840814</v>
       </c>
       <c r="H32">
-        <v>0.06641423983798088</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.04044585972700177</v>
+      </c>
+      <c r="I32">
+        <v>0.03210856116878769</v>
+      </c>
+      <c r="J32">
+        <v>-0.009572027416410779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.11188493838635</v>
+        <v>0.1101757564790429</v>
       </c>
       <c r="C33">
-        <v>-0.01158214973906192</v>
+        <v>-0.05049551607086821</v>
       </c>
       <c r="D33">
-        <v>0.01316456459134207</v>
+        <v>0.0002128913114647863</v>
       </c>
       <c r="E33">
-        <v>0.02527886222375117</v>
+        <v>-0.07463221080258127</v>
       </c>
       <c r="F33">
-        <v>-0.01388629979090389</v>
+        <v>0.04374714722622906</v>
       </c>
       <c r="G33">
-        <v>-0.06921618536200894</v>
+        <v>-0.005586999000782114</v>
       </c>
       <c r="H33">
-        <v>0.08136985398126943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.07260599840592993</v>
+      </c>
+      <c r="I33">
+        <v>0.0329211330904065</v>
+      </c>
+      <c r="J33">
+        <v>0.02208632268149741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06998216048626378</v>
+        <v>0.08737728549054206</v>
       </c>
       <c r="C34">
-        <v>-0.03880977797627606</v>
+        <v>-0.04809297694031986</v>
       </c>
       <c r="D34">
-        <v>0.004443551587159619</v>
+        <v>-0.03244184204283182</v>
       </c>
       <c r="E34">
-        <v>-0.001658921370551884</v>
+        <v>-0.04046966742091326</v>
       </c>
       <c r="F34">
-        <v>-0.02591504470236585</v>
+        <v>0.05640037276476829</v>
       </c>
       <c r="G34">
-        <v>-0.09057502217022717</v>
+        <v>-0.009060760729629899</v>
       </c>
       <c r="H34">
-        <v>-0.006395944695588187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1032498871012969</v>
+      </c>
+      <c r="I34">
+        <v>0.06507796853699929</v>
+      </c>
+      <c r="J34">
+        <v>-0.004619082865650789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.04322365898923531</v>
+        <v>0.02172851298185315</v>
       </c>
       <c r="C35">
-        <v>-0.002331275638592976</v>
+        <v>-0.008296775005296958</v>
       </c>
       <c r="D35">
-        <v>-0.01745896261132976</v>
+        <v>0.007462238544113682</v>
       </c>
       <c r="E35">
-        <v>0.009583656638696272</v>
+        <v>-0.008565671528995697</v>
       </c>
       <c r="F35">
-        <v>0.03753149516882484</v>
+        <v>0.01660474659801009</v>
       </c>
       <c r="G35">
-        <v>-0.04259662371404015</v>
+        <v>-0.006874925149026572</v>
       </c>
       <c r="H35">
-        <v>-0.01315971146293767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.04543946509459931</v>
+      </c>
+      <c r="I35">
+        <v>0.030301667142637</v>
+      </c>
+      <c r="J35">
+        <v>0.05061409270643294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03869360992812212</v>
+        <v>0.02730439010226057</v>
       </c>
       <c r="C36">
-        <v>-0.0008480553980898181</v>
+        <v>-0.009756417018240515</v>
       </c>
       <c r="D36">
-        <v>0.0173015880862279</v>
+        <v>0.006576285244768353</v>
       </c>
       <c r="E36">
-        <v>-0.0250782009648243</v>
+        <v>-0.006590779958848264</v>
       </c>
       <c r="F36">
-        <v>0.01325446565583161</v>
+        <v>-0.006865616855662946</v>
       </c>
       <c r="G36">
-        <v>-0.06253488177609887</v>
+        <v>0.01438222487645726</v>
       </c>
       <c r="H36">
-        <v>0.065412332867425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.03246952716593965</v>
+      </c>
+      <c r="I36">
+        <v>0.04838517155777109</v>
+      </c>
+      <c r="J36">
+        <v>0.01628521765090605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05421527777398365</v>
+        <v>0.0177705379743889</v>
       </c>
       <c r="C38">
-        <v>-0.02165587755761441</v>
+        <v>-0.008515104346642547</v>
       </c>
       <c r="D38">
-        <v>0.01370317156382371</v>
+        <v>-0.007749622662589397</v>
       </c>
       <c r="E38">
-        <v>-0.01185425232677192</v>
+        <v>-0.01026006420261336</v>
       </c>
       <c r="F38">
-        <v>-0.02460167330995914</v>
+        <v>-0.02541666860205393</v>
       </c>
       <c r="G38">
-        <v>-0.05990367801425338</v>
+        <v>-0.01841578520648821</v>
       </c>
       <c r="H38">
-        <v>-0.008690678110779441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01270272161469889</v>
+      </c>
+      <c r="I38">
+        <v>-0.04251926036693825</v>
+      </c>
+      <c r="J38">
+        <v>0.008522374384466701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1072894678299375</v>
+        <v>0.1510689045628387</v>
       </c>
       <c r="C39">
-        <v>-0.04128313305385481</v>
+        <v>-0.1039039895623415</v>
       </c>
       <c r="D39">
-        <v>0.0617324027078873</v>
+        <v>-0.02913182103198756</v>
       </c>
       <c r="E39">
-        <v>-0.01903263532513922</v>
+        <v>-0.06423870276580081</v>
       </c>
       <c r="F39">
-        <v>-0.02221872434307109</v>
+        <v>0.1509365877118535</v>
       </c>
       <c r="G39">
-        <v>-0.1580735489216983</v>
+        <v>-0.02082355598914167</v>
       </c>
       <c r="H39">
-        <v>-0.0859326294104507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1566933555501989</v>
+      </c>
+      <c r="I39">
+        <v>0.06324939640339965</v>
+      </c>
+      <c r="J39">
+        <v>0.01419737069448611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04795357779368786</v>
+        <v>0.01832507281842173</v>
       </c>
       <c r="C40">
-        <v>-0.01512462927293055</v>
+        <v>-0.01053257044268827</v>
       </c>
       <c r="D40">
-        <v>0.04651536496872557</v>
+        <v>-0.01417434724729681</v>
       </c>
       <c r="E40">
-        <v>0.0234416450033027</v>
+        <v>0.001475009798430732</v>
       </c>
       <c r="F40">
-        <v>0.03854542325845304</v>
+        <v>-0.05497056841991372</v>
       </c>
       <c r="G40">
-        <v>-0.3071026109455774</v>
+        <v>0.007592389079545544</v>
       </c>
       <c r="H40">
-        <v>-0.02030762212421191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.0744201127931932</v>
+      </c>
+      <c r="I40">
+        <v>0.07371214148665028</v>
+      </c>
+      <c r="J40">
+        <v>-0.03385170535175406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05123963314779448</v>
+        <v>0.02553528030634431</v>
       </c>
       <c r="C41">
-        <v>-0.02721736932547071</v>
+        <v>0.007619177754234644</v>
       </c>
       <c r="D41">
-        <v>-0.02545090472126977</v>
+        <v>-0.02953971358015457</v>
       </c>
       <c r="E41">
-        <v>-0.007309627921740693</v>
+        <v>-0.005153122102341954</v>
       </c>
       <c r="F41">
-        <v>-0.03598556428930834</v>
+        <v>0.01120153306506166</v>
       </c>
       <c r="G41">
-        <v>-0.05288391240994365</v>
+        <v>-0.0120887762780903</v>
       </c>
       <c r="H41">
-        <v>0.004162989116332289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.005100585017440627</v>
+      </c>
+      <c r="I41">
+        <v>0.008065979347804104</v>
+      </c>
+      <c r="J41">
+        <v>0.04809176316183693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.07405426446244595</v>
+        <v>0.03851831818283466</v>
       </c>
       <c r="C43">
-        <v>-0.02583635478038346</v>
+        <v>0.001978891210037355</v>
       </c>
       <c r="D43">
-        <v>0.02818500419674838</v>
+        <v>-0.03696681877666436</v>
       </c>
       <c r="E43">
-        <v>-0.01299684132727267</v>
+        <v>-0.03245596294130217</v>
       </c>
       <c r="F43">
-        <v>-0.03582681506365402</v>
+        <v>-0.006709970288804976</v>
       </c>
       <c r="G43">
-        <v>-0.01389558165275288</v>
+        <v>-0.007294193137852188</v>
       </c>
       <c r="H43">
-        <v>-0.001588650746614519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.003280876375471783</v>
+      </c>
+      <c r="I43">
+        <v>0.006589581573388931</v>
+      </c>
+      <c r="J43">
+        <v>0.07375326010255399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.08028257596123971</v>
+        <v>0.130229998298833</v>
       </c>
       <c r="C44">
-        <v>-0.005553378473516363</v>
+        <v>-0.07134012393421527</v>
       </c>
       <c r="D44">
-        <v>0.06453108440672932</v>
+        <v>0.007850731502321597</v>
       </c>
       <c r="E44">
-        <v>-0.1065706197663905</v>
+        <v>-0.03895003745307511</v>
       </c>
       <c r="F44">
-        <v>-0.06515452079934353</v>
+        <v>-0.04708327138419797</v>
       </c>
       <c r="G44">
-        <v>-0.09008640343001269</v>
+        <v>-0.0774117329655689</v>
       </c>
       <c r="H44">
-        <v>0.0266135369908378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2041169761133326</v>
+      </c>
+      <c r="I44">
+        <v>0.09753688369929403</v>
+      </c>
+      <c r="J44">
+        <v>-0.1611643273126839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05452399082880709</v>
+        <v>0.02489497628004847</v>
       </c>
       <c r="C46">
-        <v>-0.03623410550600108</v>
+        <v>0.001951630857825735</v>
       </c>
       <c r="D46">
-        <v>0.05095686099524759</v>
+        <v>-0.02363762852900722</v>
       </c>
       <c r="E46">
-        <v>-0.004139496342917401</v>
+        <v>-0.03085955880387252</v>
       </c>
       <c r="F46">
-        <v>-0.01737140349713001</v>
+        <v>-0.02643226512384143</v>
       </c>
       <c r="G46">
-        <v>-0.01887525551614442</v>
+        <v>-0.02214437185486081</v>
       </c>
       <c r="H46">
-        <v>0.09303600447555381</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04972771497287355</v>
+      </c>
+      <c r="I46">
+        <v>0.03226268277868043</v>
+      </c>
+      <c r="J46">
+        <v>0.09267179411603291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.05046610048955593</v>
+        <v>0.04215224699200715</v>
       </c>
       <c r="C47">
-        <v>0.0008513691281868721</v>
+        <v>0.002725004555518697</v>
       </c>
       <c r="D47">
-        <v>0.0508188330452736</v>
+        <v>-0.0119385495268525</v>
       </c>
       <c r="E47">
-        <v>0.02200453517700722</v>
+        <v>-0.01255675078991053</v>
       </c>
       <c r="F47">
-        <v>0.02580622079609337</v>
+        <v>-0.01406957023255905</v>
       </c>
       <c r="G47">
-        <v>-0.03303808240963839</v>
+        <v>0.008914103019317533</v>
       </c>
       <c r="H47">
-        <v>0.04647824732961624</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.01973438087280289</v>
+      </c>
+      <c r="I47">
+        <v>0.02707602515030734</v>
+      </c>
+      <c r="J47">
+        <v>0.05863648304615519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0433521187474251</v>
+        <v>0.04044653804274157</v>
       </c>
       <c r="C48">
-        <v>-0.002774915088969811</v>
+        <v>-0.01213629577868371</v>
       </c>
       <c r="D48">
-        <v>0.03040709725325215</v>
+        <v>0.01073676822079622</v>
       </c>
       <c r="E48">
-        <v>0.03409149547980433</v>
+        <v>-0.01447694100011641</v>
       </c>
       <c r="F48">
-        <v>0.02554075600366195</v>
+        <v>0.008686590251542867</v>
       </c>
       <c r="G48">
-        <v>-0.05760743760836329</v>
+        <v>0.01221181676236118</v>
       </c>
       <c r="H48">
-        <v>0.02008418089856081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05526403589181936</v>
+      </c>
+      <c r="I48">
+        <v>0.04530821988372491</v>
+      </c>
+      <c r="J48">
+        <v>0.06083346720514505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.2460302209932297</v>
+        <v>0.2310758456680461</v>
       </c>
       <c r="C49">
-        <v>-0.05736997099143558</v>
+        <v>-0.007407129083075569</v>
       </c>
       <c r="D49">
-        <v>-0.09709849744912925</v>
+        <v>-0.06723693717733048</v>
       </c>
       <c r="E49">
-        <v>-0.002505080990872801</v>
+        <v>0.03049977862393588</v>
       </c>
       <c r="F49">
-        <v>0.05861051864696671</v>
+        <v>0.01841878743366926</v>
       </c>
       <c r="G49">
-        <v>0.1876657580225975</v>
+        <v>-0.07182772004494974</v>
       </c>
       <c r="H49">
-        <v>-0.1394175815214267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1281690092790007</v>
+      </c>
+      <c r="I49">
+        <v>-0.1415690130145508</v>
+      </c>
+      <c r="J49">
+        <v>-0.2183088724273862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05527382366504684</v>
+        <v>0.04339993043750118</v>
       </c>
       <c r="C50">
-        <v>-0.01717355730248046</v>
+        <v>-0.0179430314355257</v>
       </c>
       <c r="D50">
-        <v>0.01912623393693757</v>
+        <v>-0.02705896114649883</v>
       </c>
       <c r="E50">
-        <v>0.01729571221741382</v>
+        <v>-0.01359231893845984</v>
       </c>
       <c r="F50">
-        <v>-0.03016940003533786</v>
+        <v>0.004875685406767566</v>
       </c>
       <c r="G50">
-        <v>-0.01365967078661112</v>
+        <v>-0.006336894644563925</v>
       </c>
       <c r="H50">
-        <v>0.06803088742343714</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03545119255551762</v>
+      </c>
+      <c r="I50">
+        <v>0.02280730142513842</v>
+      </c>
+      <c r="J50">
+        <v>0.05347555480271586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03419826255922194</v>
+        <v>0.0149298012010925</v>
       </c>
       <c r="C51">
-        <v>-0.01118499419842563</v>
+        <v>0.008040352180487173</v>
       </c>
       <c r="D51">
-        <v>0.01246961734991656</v>
+        <v>-0.002260765973272517</v>
       </c>
       <c r="E51">
-        <v>-0.02006406014340862</v>
+        <v>-0.01524824450649817</v>
       </c>
       <c r="F51">
-        <v>-0.02645802404247711</v>
+        <v>-0.01037756065080949</v>
       </c>
       <c r="G51">
-        <v>0.01478590030629273</v>
+        <v>-0.02311426046323421</v>
       </c>
       <c r="H51">
-        <v>-0.03926711995881727</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02037202146997615</v>
+      </c>
+      <c r="I51">
+        <v>-0.003840218863940321</v>
+      </c>
+      <c r="J51">
+        <v>-0.01555072756864554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1011316945645844</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.06221816475465582</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.03131917485225304</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02498754245018208</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02850781635537047</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.003959708489523425</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.06012683301876334</v>
+      </c>
+      <c r="I52">
+        <v>-0.04034147458091041</v>
+      </c>
+      <c r="J52">
+        <v>0.08366614991480942</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1610030067834339</v>
+        <v>0.15439163841822</v>
       </c>
       <c r="C53">
-        <v>-0.005492860515990032</v>
+        <v>-0.004832349187581529</v>
       </c>
       <c r="D53">
-        <v>-0.02198253410668014</v>
+        <v>0.008863559345755783</v>
       </c>
       <c r="E53">
-        <v>0.06037234852884742</v>
+        <v>0.025476744047457</v>
       </c>
       <c r="F53">
-        <v>-0.1954313530821619</v>
+        <v>-0.02590332758505489</v>
       </c>
       <c r="G53">
-        <v>0.04315398974010445</v>
+        <v>-0.0414084888113798</v>
       </c>
       <c r="H53">
-        <v>0.0557560515003437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.03472457942182171</v>
+      </c>
+      <c r="I53">
+        <v>-0.1417772549858162</v>
+      </c>
+      <c r="J53">
+        <v>0.1600003441675292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.05483691391194329</v>
+        <v>0.05106825567180567</v>
       </c>
       <c r="C54">
-        <v>-0.002363942340445273</v>
+        <v>-0.007175334234558703</v>
       </c>
       <c r="D54">
-        <v>0.02408645238004297</v>
+        <v>-0.01150905085629152</v>
       </c>
       <c r="E54">
-        <v>-0.009393632484345958</v>
+        <v>-0.01473645213541669</v>
       </c>
       <c r="F54">
-        <v>0.01161964675559791</v>
+        <v>-0.01560786981437648</v>
       </c>
       <c r="G54">
-        <v>-0.05646693160519801</v>
+        <v>0.01116095433664486</v>
       </c>
       <c r="H54">
-        <v>0.1030553932097628</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.06098130011544267</v>
+      </c>
+      <c r="I54">
+        <v>0.1123201527964485</v>
+      </c>
+      <c r="J54">
+        <v>0.07615326382950308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09684939394885379</v>
+        <v>0.08929688159416939</v>
       </c>
       <c r="C55">
-        <v>-0.01054736671454849</v>
+        <v>-0.02040567952739612</v>
       </c>
       <c r="D55">
-        <v>-0.004458922252087287</v>
+        <v>0.0201707963250459</v>
       </c>
       <c r="E55">
-        <v>0.02978477698095078</v>
+        <v>-0.03081962392842593</v>
       </c>
       <c r="F55">
-        <v>-0.1241358143514454</v>
+        <v>0.01306267082895881</v>
       </c>
       <c r="G55">
-        <v>-0.01393884504203202</v>
+        <v>-0.01399047664601365</v>
       </c>
       <c r="H55">
-        <v>0.08668111788367212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.006250146424864975</v>
+      </c>
+      <c r="I55">
+        <v>-0.04087992813845607</v>
+      </c>
+      <c r="J55">
+        <v>0.128665498884664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1647617933755288</v>
+        <v>0.1623139109382964</v>
       </c>
       <c r="C56">
-        <v>-0.003343139707822677</v>
+        <v>-0.03009347378847152</v>
       </c>
       <c r="D56">
-        <v>-0.0261843795904049</v>
+        <v>-0.009422128387699692</v>
       </c>
       <c r="E56">
-        <v>0.08761608474154392</v>
+        <v>-0.01032302955968513</v>
       </c>
       <c r="F56">
-        <v>-0.1836163966827431</v>
+        <v>0.01556549576383386</v>
       </c>
       <c r="G56">
-        <v>0.02873233765309238</v>
+        <v>-0.03837272971184933</v>
       </c>
       <c r="H56">
-        <v>0.04693910837792275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.01820365019795069</v>
+      </c>
+      <c r="I56">
+        <v>-0.08250881988255214</v>
+      </c>
+      <c r="J56">
+        <v>0.1454465901861013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.021096429094112</v>
+        <v>0.03826521492462756</v>
       </c>
       <c r="C58">
-        <v>-0.07167782074316527</v>
+        <v>-0.02171823317175613</v>
       </c>
       <c r="D58">
-        <v>0.1321654476262543</v>
+        <v>-0.01853587948857583</v>
       </c>
       <c r="E58">
-        <v>0.001028326154709855</v>
+        <v>-0.01425555214498138</v>
       </c>
       <c r="F58">
-        <v>0.4550574810355481</v>
+        <v>-0.06876935910127556</v>
       </c>
       <c r="G58">
-        <v>-0.2168817336875092</v>
+        <v>0.007112897631770991</v>
       </c>
       <c r="H58">
-        <v>-0.1724359890362668</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.102502214056559</v>
+      </c>
+      <c r="I58">
+        <v>-0.008243878498215165</v>
+      </c>
+      <c r="J58">
+        <v>0.03809646345815603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1452935440963819</v>
+        <v>0.1420148092332823</v>
       </c>
       <c r="C59">
-        <v>0.3800045685590381</v>
+        <v>0.3024877745205977</v>
       </c>
       <c r="D59">
-        <v>-0.02715209920653643</v>
+        <v>0.07101243766851449</v>
       </c>
       <c r="E59">
-        <v>-0.04974884220755593</v>
+        <v>-0.03862550578166481</v>
       </c>
       <c r="F59">
-        <v>-0.07239340304560499</v>
+        <v>0.04849240458391543</v>
       </c>
       <c r="G59">
-        <v>-0.009390664732978905</v>
+        <v>-0.03506781690574566</v>
       </c>
       <c r="H59">
-        <v>-0.02998189501533782</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.06348844899312968</v>
+      </c>
+      <c r="I59">
+        <v>0.0550696215005738</v>
+      </c>
+      <c r="J59">
+        <v>0.008246485231177034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2796059247198068</v>
+        <v>0.2838176442983053</v>
       </c>
       <c r="C60">
-        <v>-0.04681962345111408</v>
+        <v>-0.07087267602460726</v>
       </c>
       <c r="D60">
-        <v>-0.06756404357715137</v>
+        <v>-0.009627959296337751</v>
       </c>
       <c r="E60">
-        <v>-0.0345822230497024</v>
+        <v>0.09974980853763477</v>
       </c>
       <c r="F60">
-        <v>0.04624944700159694</v>
+        <v>-0.009923989663293433</v>
       </c>
       <c r="G60">
-        <v>0.189585101326156</v>
+        <v>-0.1161280195429778</v>
       </c>
       <c r="H60">
-        <v>-0.1194360075823246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1489414101585315</v>
+      </c>
+      <c r="I60">
+        <v>-0.1601544310004463</v>
+      </c>
+      <c r="J60">
+        <v>-0.4221733922138266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09231530383499371</v>
+        <v>0.1175393949787751</v>
       </c>
       <c r="C61">
-        <v>-0.0205553099250844</v>
+        <v>-0.05965626558298017</v>
       </c>
       <c r="D61">
-        <v>0.02779018057558004</v>
+        <v>0.001596726266257986</v>
       </c>
       <c r="E61">
-        <v>-0.01463551601719918</v>
+        <v>-0.04892963932032545</v>
       </c>
       <c r="F61">
-        <v>-0.03400370428634497</v>
+        <v>0.0893200576791273</v>
       </c>
       <c r="G61">
-        <v>-0.08039914099664462</v>
+        <v>-0.02413297328204566</v>
       </c>
       <c r="H61">
-        <v>-0.02557995074112952</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1309125609091807</v>
+      </c>
+      <c r="I61">
+        <v>0.1244465713782397</v>
+      </c>
+      <c r="J61">
+        <v>0.04147408949818897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.144008834315117</v>
+        <v>0.1589538018000661</v>
       </c>
       <c r="C62">
-        <v>-0.02867078844536146</v>
+        <v>-0.02563018581255057</v>
       </c>
       <c r="D62">
-        <v>-0.08653251673190071</v>
+        <v>3.738853958966541e-05</v>
       </c>
       <c r="E62">
-        <v>0.0933852281160721</v>
+        <v>0.00537980771854524</v>
       </c>
       <c r="F62">
-        <v>-0.1730677016977059</v>
+        <v>0.01243141506514472</v>
       </c>
       <c r="G62">
-        <v>0.02793618164237463</v>
+        <v>-0.01062629781949347</v>
       </c>
       <c r="H62">
-        <v>0.08286688372445618</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.01334272027358117</v>
+      </c>
+      <c r="I62">
+        <v>-0.1043222321281562</v>
+      </c>
+      <c r="J62">
+        <v>0.1316556990315275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04511191716655191</v>
+        <v>0.04736069649248535</v>
       </c>
       <c r="C63">
-        <v>-0.01910057142035621</v>
+        <v>-0.02030726597289409</v>
       </c>
       <c r="D63">
-        <v>-0.0001138686686873927</v>
+        <v>0.003265200802529676</v>
       </c>
       <c r="E63">
-        <v>0.01769776964399555</v>
+        <v>-0.03109578463687317</v>
       </c>
       <c r="F63">
-        <v>0.01327248302887769</v>
+        <v>0.01563238149633745</v>
       </c>
       <c r="G63">
-        <v>-0.02226943274999935</v>
+        <v>0.04025189847676177</v>
       </c>
       <c r="H63">
-        <v>0.1117228309609633</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.0444663242978566</v>
+      </c>
+      <c r="I63">
+        <v>0.06373838809255103</v>
+      </c>
+      <c r="J63">
+        <v>0.06396701274323346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.1132092941479503</v>
+        <v>0.1023659775754017</v>
       </c>
       <c r="C64">
-        <v>-0.01085574378343036</v>
+        <v>-0.0265348636152142</v>
       </c>
       <c r="D64">
-        <v>0.02635820125154664</v>
+        <v>-0.01558685978137586</v>
       </c>
       <c r="E64">
-        <v>-0.04086900853476936</v>
+        <v>-0.006385323926417646</v>
       </c>
       <c r="F64">
-        <v>0.006901781145095712</v>
+        <v>0.007329827319524466</v>
       </c>
       <c r="G64">
-        <v>-0.02928171759220873</v>
+        <v>-0.05160916952471369</v>
       </c>
       <c r="H64">
-        <v>-0.0004532658399444213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.0500988075895237</v>
+      </c>
+      <c r="I64">
+        <v>0.05598925221591503</v>
+      </c>
+      <c r="J64">
+        <v>-0.03304249706867844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.110927565995873</v>
+        <v>0.1159935822545257</v>
       </c>
       <c r="C65">
-        <v>-0.031338589321106</v>
+        <v>-0.007703407560890732</v>
       </c>
       <c r="D65">
-        <v>-0.006546017631956947</v>
+        <v>0.02035282092855806</v>
       </c>
       <c r="E65">
-        <v>-0.01728376748415306</v>
+        <v>0.01234039701215614</v>
       </c>
       <c r="F65">
-        <v>0.4380084243234258</v>
+        <v>-0.005190857449305634</v>
       </c>
       <c r="G65">
-        <v>0.2048869304159519</v>
+        <v>0.07828617734224272</v>
       </c>
       <c r="H65">
-        <v>0.5578584229298816</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.04013252154854884</v>
+      </c>
+      <c r="I65">
+        <v>0.02374504432364715</v>
+      </c>
+      <c r="J65">
+        <v>-0.1903758936489612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1561580746000452</v>
+        <v>0.1808792582441319</v>
       </c>
       <c r="C66">
-        <v>-0.04687347971688129</v>
+        <v>-0.1113733165604759</v>
       </c>
       <c r="D66">
-        <v>0.01500377621219126</v>
+        <v>-0.04422949994844688</v>
       </c>
       <c r="E66">
-        <v>-0.06028418918141685</v>
+        <v>-0.0678167270042328</v>
       </c>
       <c r="F66">
-        <v>-0.09138100240294279</v>
+        <v>0.1624798896487421</v>
       </c>
       <c r="G66">
-        <v>-0.2712254373981711</v>
+        <v>-0.03455640000869881</v>
       </c>
       <c r="H66">
-        <v>-0.1438277290303781</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1483669933754698</v>
+      </c>
+      <c r="I66">
+        <v>0.05777266604937727</v>
+      </c>
+      <c r="J66">
+        <v>-0.02525396467722838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.1080796524293985</v>
+        <v>0.08659432850652338</v>
       </c>
       <c r="C67">
-        <v>-0.04078714801605618</v>
+        <v>-0.04096769451829319</v>
       </c>
       <c r="D67">
-        <v>-0.004847095596354521</v>
+        <v>0.00659237461704883</v>
       </c>
       <c r="E67">
-        <v>-0.03798177649044355</v>
+        <v>-0.07367885231491332</v>
       </c>
       <c r="F67">
-        <v>-0.05329925782999367</v>
+        <v>-0.01977394306283064</v>
       </c>
       <c r="G67">
-        <v>-0.03615975616155784</v>
+        <v>-0.03158499364874334</v>
       </c>
       <c r="H67">
-        <v>-0.01643508215372505</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.07208507984729103</v>
+      </c>
+      <c r="I67">
+        <v>-0.02327843038271088</v>
+      </c>
+      <c r="J67">
+        <v>-0.05582596569660186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.03698679330860264</v>
+        <v>0.06172889969361613</v>
       </c>
       <c r="C68">
-        <v>0.2930144555848033</v>
+        <v>0.278295239733039</v>
       </c>
       <c r="D68">
-        <v>0.008103354091907284</v>
+        <v>0.07344311859830011</v>
       </c>
       <c r="E68">
-        <v>0.02343818942358097</v>
+        <v>-0.02660380785553362</v>
       </c>
       <c r="F68">
-        <v>0.01787851546548797</v>
+        <v>0.04774856450987774</v>
       </c>
       <c r="G68">
-        <v>0.02066904520890887</v>
+        <v>0.01670942054158669</v>
       </c>
       <c r="H68">
-        <v>0.02644314516168547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.05146320418412556</v>
+      </c>
+      <c r="I68">
+        <v>0.04769150289578696</v>
+      </c>
+      <c r="J68">
+        <v>-0.01850027471901936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.05110777244174929</v>
+        <v>0.03821953858610098</v>
       </c>
       <c r="C69">
-        <v>-0.008618412807172396</v>
+        <v>-0.0017887535534991</v>
       </c>
       <c r="D69">
-        <v>0.0002850225207498002</v>
+        <v>0.01218654848654616</v>
       </c>
       <c r="E69">
-        <v>0.03801335548604889</v>
+        <v>-0.02355055671829463</v>
       </c>
       <c r="F69">
-        <v>0.008308238366740389</v>
+        <v>-0.004607278496613933</v>
       </c>
       <c r="G69">
-        <v>-0.01129688766552611</v>
+        <v>-0.006693851257605928</v>
       </c>
       <c r="H69">
-        <v>0.002511791634831292</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.006118796848815798</v>
+      </c>
+      <c r="I69">
+        <v>-0.01126430540769367</v>
+      </c>
+      <c r="J69">
+        <v>0.02624548396096189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.08169990176478804</v>
+        <v>0.03915801686393229</v>
       </c>
       <c r="C70">
-        <v>-0.01228068105779966</v>
+        <v>0.006470335362471225</v>
       </c>
       <c r="D70">
-        <v>-0.01239910524805062</v>
+        <v>0.01956245775890193</v>
       </c>
       <c r="E70">
-        <v>-0.05766881185479835</v>
+        <v>-0.02495245896747768</v>
       </c>
       <c r="F70">
-        <v>-0.01556041352418902</v>
+        <v>0.01594116699785246</v>
       </c>
       <c r="G70">
-        <v>0.02232656520588494</v>
+        <v>-0.063617079163204</v>
       </c>
       <c r="H70">
-        <v>-0.01054869534244525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02578861208035359</v>
+      </c>
+      <c r="I70">
+        <v>-0.008203678166986288</v>
+      </c>
+      <c r="J70">
+        <v>0.06321174181298776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.04664684954404036</v>
+        <v>0.07249327888999281</v>
       </c>
       <c r="C71">
-        <v>0.3002065933863117</v>
+        <v>0.2914809555152575</v>
       </c>
       <c r="D71">
-        <v>0.003552720624791528</v>
+        <v>0.0784455430105282</v>
       </c>
       <c r="E71">
-        <v>-0.003876634708062294</v>
+        <v>-0.02993527163899099</v>
       </c>
       <c r="F71">
-        <v>0.00585679760609399</v>
+        <v>0.0397870823741845</v>
       </c>
       <c r="G71">
-        <v>-0.004405226064499344</v>
+        <v>-0.008919739214200403</v>
       </c>
       <c r="H71">
-        <v>-0.00300615372557673</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.04970674593833881</v>
+      </c>
+      <c r="I71">
+        <v>0.04968953890231841</v>
+      </c>
+      <c r="J71">
+        <v>-0.04246439593131063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1317194809471633</v>
+        <v>0.1348403409524546</v>
       </c>
       <c r="C72">
-        <v>0.0171338043669833</v>
+        <v>0.02313306496599402</v>
       </c>
       <c r="D72">
-        <v>-0.08168320935159011</v>
+        <v>-0.01153334603216409</v>
       </c>
       <c r="E72">
-        <v>0.1228297949473366</v>
+        <v>-0.02079207586065118</v>
       </c>
       <c r="F72">
-        <v>0.02252730890736458</v>
+        <v>0.009771432432397616</v>
       </c>
       <c r="G72">
-        <v>-0.02996250361408505</v>
+        <v>0.04480967327575874</v>
       </c>
       <c r="H72">
-        <v>0.08001320996578029</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.04174284875533265</v>
+      </c>
+      <c r="I72">
+        <v>-0.01007324275093044</v>
+      </c>
+      <c r="J72">
+        <v>0.02711983246786101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2785260619322144</v>
+        <v>0.2366752667753042</v>
       </c>
       <c r="C73">
-        <v>-0.1388347274763621</v>
+        <v>-0.02485139164168566</v>
       </c>
       <c r="D73">
-        <v>-0.1147495466795111</v>
+        <v>-0.03426233197001591</v>
       </c>
       <c r="E73">
-        <v>-0.08831705215141304</v>
+        <v>0.001306095968940691</v>
       </c>
       <c r="F73">
-        <v>0.2281831205216981</v>
+        <v>0.03204377212667167</v>
       </c>
       <c r="G73">
-        <v>0.2993832475573305</v>
+        <v>-0.2106555737157146</v>
       </c>
       <c r="H73">
-        <v>-0.3804963702763237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2493942908552725</v>
+      </c>
+      <c r="I73">
+        <v>-0.2959358363151794</v>
+      </c>
+      <c r="J73">
+        <v>-0.2678796339623004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1004553897552472</v>
+        <v>0.107346704255311</v>
       </c>
       <c r="C74">
-        <v>-0.03412572169804311</v>
+        <v>-0.01996839476705112</v>
       </c>
       <c r="D74">
-        <v>-0.0002192652673282992</v>
+        <v>-0.02386582036786034</v>
       </c>
       <c r="E74">
-        <v>0.0199885321726405</v>
+        <v>-0.0162348175526491</v>
       </c>
       <c r="F74">
-        <v>-0.1019145361091651</v>
+        <v>0.002044651053248597</v>
       </c>
       <c r="G74">
-        <v>0.03915486565408675</v>
+        <v>-0.01934838271149488</v>
       </c>
       <c r="H74">
-        <v>0.02646501772829097</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.03438618873019472</v>
+      </c>
+      <c r="I74">
+        <v>-0.1000874021663935</v>
+      </c>
+      <c r="J74">
+        <v>0.1116823559469891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09325548112743919</v>
+        <v>0.1209793895924231</v>
       </c>
       <c r="C75">
-        <v>-0.0179618350527476</v>
+        <v>-0.03302443619063599</v>
       </c>
       <c r="D75">
-        <v>-0.02610332237569396</v>
+        <v>-0.01962809279916837</v>
       </c>
       <c r="E75">
-        <v>0.08147308009613606</v>
+        <v>-0.01072504991099565</v>
       </c>
       <c r="F75">
-        <v>-0.08602542048789033</v>
+        <v>-0.001499057719498805</v>
       </c>
       <c r="G75">
-        <v>0.03578241239418965</v>
+        <v>0.01363443816134106</v>
       </c>
       <c r="H75">
-        <v>0.02789821316919245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.001254626928878004</v>
+      </c>
+      <c r="I75">
+        <v>-0.05885173892381893</v>
+      </c>
+      <c r="J75">
+        <v>0.1418398528265324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1415496696156363</v>
+        <v>0.04394684493839428</v>
       </c>
       <c r="C76">
-        <v>-0.02938931075129014</v>
+        <v>0.001760119955699055</v>
       </c>
       <c r="D76">
-        <v>0.0192194767560357</v>
+        <v>-0.01049192640556138</v>
       </c>
       <c r="E76">
-        <v>0.05895714287982648</v>
+        <v>-0.02641980126933523</v>
       </c>
       <c r="F76">
-        <v>-0.2056924645719379</v>
+        <v>-0.02342708478735808</v>
       </c>
       <c r="G76">
-        <v>0.0664876578785312</v>
+        <v>-0.03458266790021152</v>
       </c>
       <c r="H76">
-        <v>0.0492100538717022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04920050438644906</v>
+      </c>
+      <c r="I76">
+        <v>-0.04310849755399343</v>
+      </c>
+      <c r="J76">
+        <v>0.08657590135781983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.07876482412463826</v>
+        <v>0.08744742073389522</v>
       </c>
       <c r="C77">
-        <v>0.01012471252735936</v>
+        <v>-0.0822012236858448</v>
       </c>
       <c r="D77">
-        <v>0.0340402518609659</v>
+        <v>-0.01408325694032742</v>
       </c>
       <c r="E77">
-        <v>-0.1361413550164929</v>
+        <v>0.001268662904448018</v>
       </c>
       <c r="F77">
-        <v>0.1978697631914959</v>
+        <v>0.000151650271550365</v>
       </c>
       <c r="G77">
-        <v>-0.1633081655328663</v>
+        <v>-0.02915495538171898</v>
       </c>
       <c r="H77">
-        <v>-0.1775156240634698</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.02850163343753657</v>
+      </c>
+      <c r="I77">
+        <v>0.2190886767316165</v>
+      </c>
+      <c r="J77">
+        <v>-0.2578811629835504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.2314801866544356</v>
+        <v>0.1357938534479928</v>
       </c>
       <c r="C78">
-        <v>-0.03905280213444375</v>
+        <v>-0.007630631017800426</v>
       </c>
       <c r="D78">
-        <v>0.1532219265962569</v>
+        <v>-0.1547453186771101</v>
       </c>
       <c r="E78">
-        <v>-0.08587621324152839</v>
+        <v>-0.2149084078177006</v>
       </c>
       <c r="F78">
-        <v>0.07059463753016633</v>
+        <v>-0.3021582322515888</v>
       </c>
       <c r="G78">
-        <v>-0.1489482864121022</v>
+        <v>0.1647269486473166</v>
       </c>
       <c r="H78">
-        <v>0.09789495399772638</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.6147788368120568</v>
+      </c>
+      <c r="I78">
+        <v>0.5313543884996075</v>
+      </c>
+      <c r="J78">
+        <v>0.09486882708959259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1389537281547916</v>
+        <v>0.1417133820641312</v>
       </c>
       <c r="C79">
-        <v>-0.006077274574535781</v>
+        <v>-0.02561505610717264</v>
       </c>
       <c r="D79">
-        <v>-0.0216361314549803</v>
+        <v>-0.0417850909866152</v>
       </c>
       <c r="E79">
-        <v>0.05185879056330071</v>
+        <v>0.005248528274292844</v>
       </c>
       <c r="F79">
-        <v>-0.1073432587160511</v>
+        <v>0.009599704120855109</v>
       </c>
       <c r="G79">
-        <v>-0.009014561493340555</v>
+        <v>-0.02337904376813368</v>
       </c>
       <c r="H79">
-        <v>0.07393881782362946</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.02436151291836974</v>
+      </c>
+      <c r="I79">
+        <v>-0.08495222970727992</v>
+      </c>
+      <c r="J79">
+        <v>0.1187121121606796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.04227081014359511</v>
+        <v>0.07614349098216967</v>
       </c>
       <c r="C80">
-        <v>0.01130133584257904</v>
+        <v>-0.05408763816384031</v>
       </c>
       <c r="D80">
-        <v>-0.1052745099658538</v>
+        <v>0.01425196374627073</v>
       </c>
       <c r="E80">
-        <v>-0.04570667825558204</v>
+        <v>-0.03118165195261688</v>
       </c>
       <c r="F80">
-        <v>0.04187370552283451</v>
+        <v>0.05827210775093652</v>
       </c>
       <c r="G80">
-        <v>-0.01091846272881015</v>
+        <v>-0.004041214430284688</v>
       </c>
       <c r="H80">
-        <v>0.1184940349773542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.01882190163877852</v>
+      </c>
+      <c r="I80">
+        <v>0.04350250815318188</v>
+      </c>
+      <c r="J80">
+        <v>0.1412091149025609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1061264683621818</v>
+        <v>0.137807145323917</v>
       </c>
       <c r="C81">
-        <v>0.001299270466281447</v>
+        <v>-0.03493851001221056</v>
       </c>
       <c r="D81">
-        <v>-0.007975189185523205</v>
+        <v>-0.02854082113827943</v>
       </c>
       <c r="E81">
-        <v>0.028057603528958</v>
+        <v>-0.01971861265586598</v>
       </c>
       <c r="F81">
-        <v>-0.1294704415239754</v>
+        <v>-0.00780493806108659</v>
       </c>
       <c r="G81">
-        <v>0.004861352030559063</v>
+        <v>-0.01560286269377727</v>
       </c>
       <c r="H81">
-        <v>0.02724268057270075</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.0224878601892295</v>
+      </c>
+      <c r="I81">
+        <v>-0.034026551717116</v>
+      </c>
+      <c r="J81">
+        <v>0.1751195955390282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1155987205210352</v>
+        <v>0.1582735842805579</v>
       </c>
       <c r="C82">
-        <v>-0.01861705491787771</v>
+        <v>-0.04333302739873152</v>
       </c>
       <c r="D82">
-        <v>-0.02564551702355987</v>
+        <v>0.005914954244244872</v>
       </c>
       <c r="E82">
-        <v>-0.0294612856552917</v>
+        <v>0.0005098776335076371</v>
       </c>
       <c r="F82">
-        <v>-0.2330970046129741</v>
+        <v>0.03006986314628724</v>
       </c>
       <c r="G82">
-        <v>0.002079785572720991</v>
+        <v>-0.05959957281660536</v>
       </c>
       <c r="H82">
-        <v>0.06266580084685787</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.01567715472794544</v>
+      </c>
+      <c r="I82">
+        <v>-0.1317251018111308</v>
+      </c>
+      <c r="J82">
+        <v>0.2113287002697218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.1117068241555959</v>
+        <v>0.08410525458155223</v>
       </c>
       <c r="C83">
-        <v>-0.04492347578365612</v>
+        <v>-0.02851101675779235</v>
       </c>
       <c r="D83">
-        <v>-0.01667062259027886</v>
+        <v>0.005720357963315121</v>
       </c>
       <c r="E83">
-        <v>-0.09828016926342331</v>
+        <v>0.04193941776069705</v>
       </c>
       <c r="F83">
-        <v>0.0232158591568859</v>
+        <v>-0.03892721113927078</v>
       </c>
       <c r="G83">
-        <v>-0.08250133346569952</v>
+        <v>0.01059575109614009</v>
       </c>
       <c r="H83">
-        <v>-0.0662424723070825</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.001829074417041101</v>
+      </c>
+      <c r="I83">
+        <v>0.04392382677562543</v>
+      </c>
+      <c r="J83">
+        <v>0.06974582612314402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.05083093289002339</v>
+        <v>0.06953401155255705</v>
       </c>
       <c r="C84">
-        <v>-0.02938550949356777</v>
+        <v>-0.02483210687713838</v>
       </c>
       <c r="D84">
-        <v>0.005404364276830524</v>
+        <v>0.005943476633916391</v>
       </c>
       <c r="E84">
-        <v>0.04594397594134279</v>
+        <v>0.01740633755035698</v>
       </c>
       <c r="F84">
-        <v>-0.05017137608270851</v>
+        <v>0.04229698422892317</v>
       </c>
       <c r="G84">
-        <v>0.008554562535129423</v>
+        <v>-0.03227211826574682</v>
       </c>
       <c r="H84">
-        <v>0.04297125017957579</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.02581522795936493</v>
+      </c>
+      <c r="I84">
+        <v>0.04719535218376758</v>
+      </c>
+      <c r="J84">
+        <v>-0.08210159434416153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1085571112513309</v>
+        <v>0.122020227237926</v>
       </c>
       <c r="C85">
-        <v>-0.01175575169453793</v>
+        <v>-0.01323045376576883</v>
       </c>
       <c r="D85">
-        <v>-0.02810765724933439</v>
+        <v>-0.01179825771925693</v>
       </c>
       <c r="E85">
-        <v>0.08353003756420634</v>
+        <v>-0.002226775099024705</v>
       </c>
       <c r="F85">
-        <v>-0.1356905388072694</v>
+        <v>-0.002383903919273513</v>
       </c>
       <c r="G85">
-        <v>0.003071245923954925</v>
+        <v>-0.02218079850700848</v>
       </c>
       <c r="H85">
-        <v>0.09773313995196528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.001849133812749795</v>
+      </c>
+      <c r="I85">
+        <v>-0.06438374760865015</v>
+      </c>
+      <c r="J85">
+        <v>0.1259338901198266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.07144074429197628</v>
+        <v>0.1156190225363003</v>
       </c>
       <c r="C86">
-        <v>-0.01756583867740298</v>
+        <v>0.07852804999137608</v>
       </c>
       <c r="D86">
-        <v>0.03156642696023992</v>
+        <v>-0.315294042864704</v>
       </c>
       <c r="E86">
-        <v>-0.1200434722906105</v>
+        <v>0.8667008341829368</v>
       </c>
       <c r="F86">
-        <v>-0.01432081606992717</v>
+        <v>-0.1290713985685925</v>
       </c>
       <c r="G86">
-        <v>0.04237195801917101</v>
+        <v>0.1306394791882392</v>
       </c>
       <c r="H86">
-        <v>0.248571788730069</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.1010091993050888</v>
+      </c>
+      <c r="I86">
+        <v>0.1678087198192483</v>
+      </c>
+      <c r="J86">
+        <v>0.02633267336086061</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1115017866303083</v>
+        <v>0.1173045508571817</v>
       </c>
       <c r="C87">
-        <v>-0.04426591863528714</v>
+        <v>-0.09013201869629794</v>
       </c>
       <c r="D87">
-        <v>0.01919095173115601</v>
+        <v>0.05849887109864864</v>
       </c>
       <c r="E87">
-        <v>-0.02994257803075147</v>
+        <v>0.002058344410269297</v>
       </c>
       <c r="F87">
-        <v>0.02744979429145139</v>
+        <v>-0.02599952456187469</v>
       </c>
       <c r="G87">
-        <v>-0.1247479714849804</v>
+        <v>-0.02483418184417812</v>
       </c>
       <c r="H87">
-        <v>0.03955597326358162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.01319373090366396</v>
+      </c>
+      <c r="I87">
+        <v>0.2032101640807382</v>
+      </c>
+      <c r="J87">
+        <v>-0.1106267327090025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.07388993025309155</v>
+        <v>0.05494204795317343</v>
       </c>
       <c r="C88">
-        <v>-0.03691352483398128</v>
+        <v>-0.0243333185973257</v>
       </c>
       <c r="D88">
-        <v>0.01025875802482999</v>
+        <v>-0.02518711196244347</v>
       </c>
       <c r="E88">
-        <v>-0.0295015246419061</v>
+        <v>-0.03337224959113953</v>
       </c>
       <c r="F88">
-        <v>-0.02348379378139308</v>
+        <v>0.04686267133974329</v>
       </c>
       <c r="G88">
-        <v>-0.05123821579275329</v>
+        <v>-0.01809766602760009</v>
       </c>
       <c r="H88">
-        <v>0.009663674106823211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.005421473178699079</v>
+      </c>
+      <c r="I88">
+        <v>0.03126878000427816</v>
+      </c>
+      <c r="J88">
+        <v>0.05426843646757402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.09091318767030236</v>
+        <v>0.1162453885314827</v>
       </c>
       <c r="C89">
-        <v>0.3823177916292496</v>
+        <v>0.3715675743806304</v>
       </c>
       <c r="D89">
-        <v>0.03482561779100293</v>
+        <v>0.09102175337779407</v>
       </c>
       <c r="E89">
-        <v>-0.05497077670149591</v>
+        <v>-0.01345983764425315</v>
       </c>
       <c r="F89">
-        <v>0.02385112467783805</v>
+        <v>-0.0348465537337657</v>
       </c>
       <c r="G89">
-        <v>0.001327591136132954</v>
+        <v>-0.04634411250591177</v>
       </c>
       <c r="H89">
-        <v>-0.02805325079030214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01362280096817942</v>
+      </c>
+      <c r="I89">
+        <v>0.0212996022877789</v>
+      </c>
+      <c r="J89">
+        <v>0.009071016919343582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07322692247524829</v>
+        <v>0.08725097750769646</v>
       </c>
       <c r="C90">
-        <v>0.3001507422200842</v>
+        <v>0.295885579381493</v>
       </c>
       <c r="D90">
-        <v>0.03487693805087177</v>
+        <v>0.07325494966468525</v>
       </c>
       <c r="E90">
-        <v>-0.0213726834513311</v>
+        <v>-0.01724003012359112</v>
       </c>
       <c r="F90">
-        <v>0.02554898626106646</v>
+        <v>0.040428514541053</v>
       </c>
       <c r="G90">
-        <v>-0.01469522079122434</v>
+        <v>-0.01917445330557706</v>
       </c>
       <c r="H90">
-        <v>-0.05121138935109246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05609392951182327</v>
+      </c>
+      <c r="I90">
+        <v>0.04299872574143702</v>
+      </c>
+      <c r="J90">
+        <v>-0.04552008991369813</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.08072628307780901</v>
+        <v>0.08889435337367725</v>
       </c>
       <c r="C91">
-        <v>-0.02564543537406216</v>
+        <v>-0.02064290089040197</v>
       </c>
       <c r="D91">
-        <v>-0.009772662093213867</v>
+        <v>-0.0199216825404757</v>
       </c>
       <c r="E91">
-        <v>0.01822677764181195</v>
+        <v>0.009923093222029188</v>
       </c>
       <c r="F91">
-        <v>-0.06462928552631812</v>
+        <v>-0.004760151768951739</v>
       </c>
       <c r="G91">
-        <v>0.04446714099260708</v>
+        <v>-0.02396354041375326</v>
       </c>
       <c r="H91">
-        <v>-0.01411454335595465</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.000253970363720595</v>
+      </c>
+      <c r="I91">
+        <v>-0.03975469531616118</v>
+      </c>
+      <c r="J91">
+        <v>0.08122321166701975</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06561430044573505</v>
+        <v>0.09618697590441763</v>
       </c>
       <c r="C92">
-        <v>0.3582373944166118</v>
+        <v>0.3333767603158599</v>
       </c>
       <c r="D92">
-        <v>0.0330753097602019</v>
+        <v>0.1050809068233287</v>
       </c>
       <c r="E92">
-        <v>-0.02228063464111387</v>
+        <v>-0.006667281303503717</v>
       </c>
       <c r="F92">
-        <v>0.06347413841717943</v>
+        <v>-0.004349484488848092</v>
       </c>
       <c r="G92">
-        <v>-0.004389377308662316</v>
+        <v>-0.0003823678480471938</v>
       </c>
       <c r="H92">
-        <v>-0.0189919692673191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.06747492978099057</v>
+      </c>
+      <c r="I92">
+        <v>0.04730693438371496</v>
+      </c>
+      <c r="J92">
+        <v>0.03886305313639642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.0810461351184979</v>
+        <v>0.08827037434910034</v>
       </c>
       <c r="C93">
-        <v>0.3121193982458369</v>
+        <v>0.3219242319203979</v>
       </c>
       <c r="D93">
-        <v>-0.008508723967967905</v>
+        <v>0.07809764324619224</v>
       </c>
       <c r="E93">
-        <v>-0.002257498853021572</v>
+        <v>-0.004093940242303937</v>
       </c>
       <c r="F93">
-        <v>0.0294963541265379</v>
+        <v>0.05758661751187556</v>
       </c>
       <c r="G93">
-        <v>0.02878001996556472</v>
+        <v>-0.02450104519379659</v>
       </c>
       <c r="H93">
-        <v>0.009421149674285548</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.03245438080394638</v>
+      </c>
+      <c r="I93">
+        <v>0.04693586805421915</v>
+      </c>
+      <c r="J93">
+        <v>-0.01636655976701144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09436233447248357</v>
+        <v>0.1401173873971834</v>
       </c>
       <c r="C94">
-        <v>-0.04604344089542984</v>
+        <v>-0.03677161754576197</v>
       </c>
       <c r="D94">
-        <v>-0.007510678403120435</v>
+        <v>-0.02052902571796571</v>
       </c>
       <c r="E94">
-        <v>0.04670537332650242</v>
+        <v>-0.04761236201478547</v>
       </c>
       <c r="F94">
-        <v>-0.1087163760225309</v>
+        <v>-0.01927529993311711</v>
       </c>
       <c r="G94">
-        <v>0.05084620726961544</v>
+        <v>-0.01335197059630103</v>
       </c>
       <c r="H94">
-        <v>0.04300163554484041</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.003797143654608278</v>
+      </c>
+      <c r="I94">
+        <v>-0.08044765791101159</v>
+      </c>
+      <c r="J94">
+        <v>0.1193524775331656</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1307286718811615</v>
+        <v>0.1255143671195176</v>
       </c>
       <c r="C95">
-        <v>-0.07044685754662933</v>
+        <v>-0.05170468084487004</v>
       </c>
       <c r="D95">
-        <v>0.07259050476224183</v>
+        <v>-0.03291271499351953</v>
       </c>
       <c r="E95">
-        <v>-0.07297406253312105</v>
+        <v>-0.03845358082204239</v>
       </c>
       <c r="F95">
-        <v>0.105366795662745</v>
+        <v>-0.02146560214098331</v>
       </c>
       <c r="G95">
-        <v>-0.1083695560613292</v>
+        <v>-0.02631552597737399</v>
       </c>
       <c r="H95">
-        <v>0.05647156827031768</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.06652268612928038</v>
+      </c>
+      <c r="I95">
+        <v>0.1452175246983277</v>
+      </c>
+      <c r="J95">
+        <v>-0.06407195239173875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0109267206999898</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0006155087040847312</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001596403431624758</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.005016468763273948</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.005694385609835467</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.008433419215251902</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.001695853753673944</v>
+      </c>
+      <c r="I96">
+        <v>0.02777382307443732</v>
+      </c>
+      <c r="J96">
+        <v>-0.01725706822807407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.1445997724123263</v>
+        <v>0.1714690990648564</v>
       </c>
       <c r="C97">
-        <v>0.0453297734391646</v>
+        <v>0.02346639562310799</v>
       </c>
       <c r="D97">
-        <v>-0.1596312364902454</v>
+        <v>-0.04129109732910914</v>
       </c>
       <c r="E97">
-        <v>0.8553934222445335</v>
+        <v>-0.1300239519818465</v>
       </c>
       <c r="F97">
-        <v>0.1943576263012612</v>
+        <v>0.0330408946696764</v>
       </c>
       <c r="G97">
-        <v>-0.1567201656467822</v>
+        <v>0.9007371693667205</v>
       </c>
       <c r="H97">
-        <v>-0.03888521938318122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.07048760459292883</v>
+      </c>
+      <c r="I97">
+        <v>-0.2517050864649371</v>
+      </c>
+      <c r="J97">
+        <v>-0.09164472627105529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3204581635412224</v>
+        <v>0.2648737117002901</v>
       </c>
       <c r="C98">
-        <v>-0.06399833405469532</v>
+        <v>-0.007645403400031277</v>
       </c>
       <c r="D98">
-        <v>-0.1552235317203581</v>
+        <v>0.04381541428177921</v>
       </c>
       <c r="E98">
-        <v>-0.1210267532799932</v>
+        <v>0.1332003858841778</v>
       </c>
       <c r="F98">
-        <v>0.02806709387449081</v>
+        <v>-0.1111513298604807</v>
       </c>
       <c r="G98">
-        <v>0.2222573315862366</v>
+        <v>-0.04878755538124952</v>
       </c>
       <c r="H98">
-        <v>-0.1824281452534996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.2771987003385708</v>
+      </c>
+      <c r="I98">
+        <v>-0.2060681368855558</v>
+      </c>
+      <c r="J98">
+        <v>0.2471797208240325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.08758766032409959</v>
+        <v>0.05871248486255427</v>
       </c>
       <c r="C99">
-        <v>-0.01862149619926876</v>
+        <v>0.005673268424108315</v>
       </c>
       <c r="D99">
-        <v>0.008649002932435527</v>
+        <v>-0.01616881502561584</v>
       </c>
       <c r="E99">
-        <v>0.005963434012937306</v>
+        <v>-0.04492366409642366</v>
       </c>
       <c r="F99">
-        <v>-0.02473632625347609</v>
+        <v>-0.01256993160103781</v>
       </c>
       <c r="G99">
-        <v>-0.00634816789597465</v>
+        <v>-0.02150772339605419</v>
       </c>
       <c r="H99">
-        <v>-0.0761410052252228</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01813590167064154</v>
+      </c>
+      <c r="I99">
+        <v>-0.03305580448464496</v>
+      </c>
+      <c r="J99">
+        <v>0.03315776893735729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.08368037048594214</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2301546213941396</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8834683256519476</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2516593573428637</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.09127330919506502</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.1073852317578287</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.05605933651713067</v>
+      </c>
+      <c r="I100">
+        <v>0.1097883957317903</v>
+      </c>
+      <c r="J100">
+        <v>0.02317957616391821</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05899969718510206</v>
+        <v>0.03621149623354421</v>
       </c>
       <c r="C101">
-        <v>0.002388838120918261</v>
+        <v>-0.005438896608737491</v>
       </c>
       <c r="D101">
-        <v>0.04187905880472137</v>
+        <v>0.005566481572368268</v>
       </c>
       <c r="E101">
-        <v>-0.02982784812060028</v>
+        <v>-0.009302067699989418</v>
       </c>
       <c r="F101">
-        <v>-0.01890128046776743</v>
+        <v>0.02300302078694461</v>
       </c>
       <c r="G101">
-        <v>-0.03988002834851685</v>
+        <v>-0.02679958059798778</v>
       </c>
       <c r="H101">
-        <v>0.1031674460225071</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.0724922988766768</v>
+      </c>
+      <c r="I101">
+        <v>0.05540337567985844</v>
+      </c>
+      <c r="J101">
+        <v>0.08544342055456523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
